--- a/analyze/outputMain.xlsx
+++ b/analyze/outputMain.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simak\Documents\GitHub\Diploma\analyze\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B55CE9-8F11-407F-9F7F-2A9683621166}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50B144C-FD16-446E-95EB-4BD372F24D06}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3180" yWindow="2445" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="всего" sheetId="1" r:id="rId1"/>
-    <sheet name="занятость" sheetId="2" r:id="rId2"/>
+    <sheet name="all" sheetId="1" r:id="rId1"/>
+    <sheet name="job" sheetId="2" r:id="rId2"/>
     <sheet name="age" sheetId="3" r:id="rId3"/>
     <sheet name="stud" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>Численность рабочей силы – всего</t>
   </si>
@@ -40,12 +40,6 @@
     <t>безработные – всего</t>
   </si>
   <si>
-    <t>УРОВЕНЬ ЗАНЯТОСТИ И УРОВЕНЬ БЕЗРАБОТИЦЫ</t>
-  </si>
-  <si>
-    <t>Мужчины</t>
-  </si>
-  <si>
     <t>Уровень занятости</t>
   </si>
   <si>
@@ -58,15 +52,6 @@
     <t>Уровень участия в рабочей силе</t>
   </si>
   <si>
-    <t>Женщины</t>
-  </si>
-  <si>
-    <t>5.5. РАСПРЕДЕЛЕНИЕ ЧИСЛЕННОСТИ ЗАНЯТЫХ в возрасте 15-72 лет</t>
-  </si>
-  <si>
-    <t>ПО ВОЗРАСТНЫМ ГРУППАМ</t>
-  </si>
-  <si>
     <t>годы</t>
   </si>
   <si>
@@ -91,33 +76,6 @@
     <t>60-72</t>
   </si>
   <si>
-    <t>27,6</t>
-  </si>
-  <si>
-    <t>23,1</t>
-  </si>
-  <si>
-    <t>27,9</t>
-  </si>
-  <si>
-    <t>28,2</t>
-  </si>
-  <si>
-    <t>23,7</t>
-  </si>
-  <si>
-    <t>29,1</t>
-  </si>
-  <si>
-    <t>25,1</t>
-  </si>
-  <si>
-    <t>28,8</t>
-  </si>
-  <si>
-    <t>24,9</t>
-  </si>
-  <si>
     <t>не имеют основного общего</t>
   </si>
   <si>
@@ -142,12 +100,6 @@
     <t>Годы</t>
   </si>
   <si>
-    <t>ПО УРОВНЮ ОБРАЗОВАНИЯ</t>
-  </si>
-  <si>
-    <t>5.6. РАСПРЕДЕЛЕНИЕ ЧИСЛЕННОСТИ ЗАНЯТЫХ в возрасте 15-72 лет</t>
-  </si>
-  <si>
     <t>зан мужчины</t>
   </si>
   <si>
@@ -158,6 +110,12 @@
   </si>
   <si>
     <t>безраб женщины</t>
+  </si>
+  <si>
+    <t>год</t>
+  </si>
+  <si>
+    <t>всего</t>
   </si>
 </sst>
 </file>
@@ -229,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -251,6 +209,11 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -669,7 +632,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B6">
         <v>552.79999999999995</v>
@@ -689,7 +652,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B7">
         <v>517.1</v>
@@ -729,7 +692,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B9">
         <v>45.5</v>
@@ -749,7 +712,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B10">
         <v>37.9</v>
@@ -774,10 +737,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04B5E96E-20F6-4C4A-8F14-CF28ABAD518F}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A2:P24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,295 +752,643 @@
     <col min="5" max="5" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2014</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2016</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2018</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2014</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2015</v>
+      </c>
+      <c r="I3" s="1">
+        <v>2016</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2017</v>
+      </c>
+      <c r="K3" s="1">
+        <v>2018</v>
+      </c>
+      <c r="L3" s="3">
+        <v>2014</v>
+      </c>
+      <c r="M3" s="5">
+        <v>2015</v>
+      </c>
+      <c r="N3" s="5">
+        <v>2016</v>
+      </c>
+      <c r="O3" s="5">
+        <v>2017</v>
+      </c>
+      <c r="P3" s="5">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2014</v>
       </c>
       <c r="B4" s="1">
         <v>63.6</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
+        <v>65.8</v>
+      </c>
+      <c r="D4" s="1">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="E4" s="1">
+        <v>63.8</v>
+      </c>
+      <c r="F4" s="1">
+        <v>65.3</v>
+      </c>
+      <c r="G4" s="1">
+        <v>70.3</v>
+      </c>
+      <c r="H4" s="1">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="I4" s="1">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="J4" s="1">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="K4" s="1">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="L4" s="4">
+        <v>57.6</v>
+      </c>
+      <c r="M4" s="6">
+        <v>59.4</v>
+      </c>
+      <c r="N4" s="6">
+        <v>58.2</v>
+      </c>
+      <c r="O4" s="6">
+        <v>57.1</v>
+      </c>
+      <c r="P4" s="6">
+        <v>58.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
         <v>59</v>
-      </c>
-      <c r="D4" s="2">
-        <v>7.2</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B5" s="1">
-        <v>65.8</v>
       </c>
       <c r="C5" s="2">
         <v>60.5</v>
       </c>
       <c r="D5" s="2">
+        <v>59.5</v>
+      </c>
+      <c r="E5" s="2">
+        <v>59.4</v>
+      </c>
+      <c r="F5" s="2">
+        <v>61.4</v>
+      </c>
+      <c r="G5" s="2">
+        <v>65</v>
+      </c>
+      <c r="H5" s="2">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="I5" s="2">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="J5" s="2">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="K5" s="2">
+        <v>68.3</v>
+      </c>
+      <c r="L5" s="4">
+        <v>53.7</v>
+      </c>
+      <c r="M5" s="6">
+        <v>55.1</v>
+      </c>
+      <c r="N5" s="6">
+        <v>53</v>
+      </c>
+      <c r="O5" s="6">
+        <v>53.2</v>
+      </c>
+      <c r="P5" s="6">
+        <v>55.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="C6" s="2">
         <v>8</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B6" s="1">
-        <v>65.099999999999994</v>
-      </c>
-      <c r="C6" s="2">
-        <v>59.5</v>
       </c>
       <c r="D6" s="2">
         <v>8.6</v>
       </c>
       <c r="E6" s="2">
+        <v>6.9</v>
+      </c>
+      <c r="F6" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="G6" s="2">
+        <v>7.6</v>
+      </c>
+      <c r="H6" s="2">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I6" s="2">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="J6" s="2">
+        <v>6.9</v>
+      </c>
+      <c r="K6" s="2">
+        <v>6</v>
+      </c>
+      <c r="L6" s="4">
+        <v>6.8</v>
+      </c>
+      <c r="M6" s="6">
+        <v>7.2</v>
+      </c>
+      <c r="N6" s="6">
+        <v>8.9</v>
+      </c>
+      <c r="O6" s="6">
+        <v>6.9</v>
+      </c>
+      <c r="P6" s="6">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="D7" s="2">
         <v>1.7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B7" s="1">
-        <v>63.8</v>
-      </c>
-      <c r="C7" s="2">
-        <v>59.4</v>
-      </c>
-      <c r="D7" s="2">
-        <v>6.9</v>
       </c>
       <c r="E7" s="2">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B8" s="1">
-        <v>65.3</v>
-      </c>
-      <c r="C8" s="2">
-        <v>61.4</v>
-      </c>
-      <c r="D8" s="2">
-        <v>6.1</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="F7" s="2">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="G7" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="L7" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="M7" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="N7" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="O7" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="P7" s="6">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B19" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="1">
         <v>2014</v>
       </c>
-      <c r="B10" s="1">
+      <c r="C20" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2016</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2018</v>
+      </c>
+      <c r="G20" s="1">
+        <v>2014</v>
+      </c>
+      <c r="H20" s="1">
+        <v>2015</v>
+      </c>
+      <c r="I20" s="1">
+        <v>2016</v>
+      </c>
+      <c r="J20" s="1">
+        <v>2017</v>
+      </c>
+      <c r="K20" s="1">
+        <v>2018</v>
+      </c>
+      <c r="L20" s="3">
+        <v>2014</v>
+      </c>
+      <c r="M20" s="5">
+        <v>2015</v>
+      </c>
+      <c r="N20" s="5">
+        <v>2016</v>
+      </c>
+      <c r="O20" s="5">
+        <v>2017</v>
+      </c>
+      <c r="P20" s="5">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="1">
+        <v>63.6</v>
+      </c>
+      <c r="C21" s="1">
+        <v>65.8</v>
+      </c>
+      <c r="D21" s="1">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="E21" s="1">
+        <v>63.8</v>
+      </c>
+      <c r="F21" s="1">
+        <v>65.3</v>
+      </c>
+      <c r="G21" s="1">
         <v>70.3</v>
       </c>
-      <c r="C10" s="2">
+      <c r="H21" s="1">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="I21" s="1">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="J21" s="1">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="K21" s="1">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="L21" s="4">
+        <v>57.6</v>
+      </c>
+      <c r="M21" s="6">
+        <v>59.4</v>
+      </c>
+      <c r="N21" s="6">
+        <v>58.2</v>
+      </c>
+      <c r="O21" s="6">
+        <v>57.1</v>
+      </c>
+      <c r="P21" s="6">
+        <v>58.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="2">
+        <v>59</v>
+      </c>
+      <c r="C22" s="2">
+        <v>60.5</v>
+      </c>
+      <c r="D22" s="2">
+        <v>59.5</v>
+      </c>
+      <c r="E22" s="2">
+        <v>59.4</v>
+      </c>
+      <c r="F22" s="2">
+        <v>61.4</v>
+      </c>
+      <c r="G22" s="2">
         <v>65</v>
       </c>
-      <c r="D10" s="2">
+      <c r="H22" s="2">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="I22" s="2">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="J22" s="2">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="K22" s="2">
+        <v>68.3</v>
+      </c>
+      <c r="L22" s="4">
+        <v>53.7</v>
+      </c>
+      <c r="M22" s="6">
+        <v>55.1</v>
+      </c>
+      <c r="N22" s="6">
+        <v>53</v>
+      </c>
+      <c r="O22" s="6">
+        <v>53.2</v>
+      </c>
+      <c r="P22" s="6">
+        <v>55.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="C23" s="2">
+        <v>8</v>
+      </c>
+      <c r="D23" s="2">
+        <v>8.6</v>
+      </c>
+      <c r="E23" s="2">
+        <v>6.9</v>
+      </c>
+      <c r="F23" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="G23" s="2">
         <v>7.6</v>
       </c>
-      <c r="E10" s="2">
+      <c r="H23" s="2">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I23" s="2">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="J23" s="2">
+        <v>6.9</v>
+      </c>
+      <c r="K23" s="2">
+        <v>6</v>
+      </c>
+      <c r="L23" s="4">
+        <v>6.8</v>
+      </c>
+      <c r="M23" s="6">
+        <v>7.2</v>
+      </c>
+      <c r="N23" s="6">
+        <v>8.9</v>
+      </c>
+      <c r="O23" s="6">
+        <v>6.9</v>
+      </c>
+      <c r="P23" s="6">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="C24" s="2">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B11" s="1">
-        <v>73.099999999999994</v>
-      </c>
-      <c r="C11" s="2">
-        <v>66.599999999999994</v>
-      </c>
-      <c r="D11" s="2">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="D24" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="H24" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B12" s="1">
-        <v>72.900000000000006</v>
-      </c>
-      <c r="C12" s="2">
-        <v>66.900000000000006</v>
-      </c>
-      <c r="D12" s="2">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="E12" s="2">
+      <c r="I24" s="2">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B13" s="1">
-        <v>71.400000000000006</v>
-      </c>
-      <c r="C13" s="2">
-        <v>66.400000000000006</v>
-      </c>
-      <c r="D13" s="2">
-        <v>6.9</v>
-      </c>
-      <c r="E13" s="2">
+      <c r="J24" s="2">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B14" s="1">
-        <v>72.599999999999994</v>
-      </c>
-      <c r="C14" s="2">
-        <v>68.3</v>
-      </c>
-      <c r="D14" s="2">
-        <v>6</v>
-      </c>
-      <c r="E14" s="2">
+      <c r="K24" s="2">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>2014</v>
-      </c>
-      <c r="B16" s="4">
-        <v>57.6</v>
-      </c>
-      <c r="C16" s="4">
-        <v>53.7</v>
-      </c>
-      <c r="D16" s="4">
-        <v>6.8</v>
-      </c>
-      <c r="E16" s="4">
+      <c r="L24" s="4">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>2015</v>
-      </c>
-      <c r="B17" s="6">
-        <v>59.4</v>
-      </c>
-      <c r="C17" s="6">
-        <v>55.1</v>
-      </c>
-      <c r="D17" s="6">
-        <v>7.2</v>
-      </c>
-      <c r="E17" s="6">
+      <c r="M24" s="6">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>2016</v>
-      </c>
-      <c r="B18" s="6">
-        <v>58.2</v>
-      </c>
-      <c r="C18" s="6">
-        <v>53</v>
-      </c>
-      <c r="D18" s="6">
-        <v>8.9</v>
-      </c>
-      <c r="E18" s="6">
+      <c r="N24" s="6">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>2017</v>
-      </c>
-      <c r="B19" s="6">
-        <v>57.1</v>
-      </c>
-      <c r="C19" s="6">
-        <v>53.2</v>
-      </c>
-      <c r="D19" s="6">
-        <v>6.9</v>
-      </c>
-      <c r="E19" s="6">
+      <c r="O24" s="6">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>2018</v>
-      </c>
-      <c r="B20" s="6">
-        <v>58.9</v>
-      </c>
-      <c r="C20" s="6">
-        <v>55.3</v>
-      </c>
-      <c r="D20" s="6">
-        <v>6.2</v>
-      </c>
-      <c r="E20" s="6">
+      <c r="P24" s="6">
         <v>1.3</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="L19:P19"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A13:A17"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1085,177 +1396,167 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A370056-B493-48B5-832E-8D88DA086979}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H8"/>
+      <selection sqref="A1:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
         <v>12</v>
       </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>13</v>
+      <c r="A2">
+        <v>2014</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>0.6</v>
+      </c>
+      <c r="D2">
+        <v>21.1</v>
+      </c>
+      <c r="E2" s="8">
+        <v>27.6</v>
+      </c>
+      <c r="F2" s="8">
+        <v>23.1</v>
+      </c>
+      <c r="G2">
+        <v>23.8</v>
+      </c>
+      <c r="H2">
+        <v>3.8</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>21</v>
+      <c r="A3">
+        <v>2015</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>0.4</v>
+      </c>
+      <c r="D3">
+        <v>20.5</v>
+      </c>
+      <c r="E3" s="8">
+        <v>27.9</v>
+      </c>
+      <c r="F3" s="8">
+        <v>23.1</v>
+      </c>
+      <c r="G3">
+        <v>23.8</v>
+      </c>
+      <c r="H3">
+        <v>4.3</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="B4">
         <v>100</v>
       </c>
       <c r="C4">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="D4">
-        <v>21.1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
+        <v>19.100000000000001</v>
+      </c>
+      <c r="E4" s="8">
+        <v>28.2</v>
+      </c>
+      <c r="F4" s="8">
+        <v>23.7</v>
       </c>
       <c r="G4">
-        <v>23.8</v>
+        <v>23.6</v>
       </c>
       <c r="H4">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="B5">
         <v>100</v>
       </c>
       <c r="C5">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D5">
-        <v>20.5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
+        <v>18.600000000000001</v>
+      </c>
+      <c r="E5" s="8">
+        <v>29.1</v>
+      </c>
+      <c r="F5" s="8">
+        <v>25.1</v>
       </c>
       <c r="G5">
-        <v>23.8</v>
+        <v>22.7</v>
       </c>
       <c r="H5">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="B6">
         <v>100</v>
       </c>
       <c r="C6">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="D6">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" t="s">
-        <v>26</v>
+        <v>18.7</v>
+      </c>
+      <c r="E6" s="8">
+        <v>28.8</v>
+      </c>
+      <c r="F6" s="8">
+        <v>24.9</v>
       </c>
       <c r="G6">
-        <v>23.6</v>
+        <v>22</v>
       </c>
       <c r="H6">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2017</v>
-      </c>
-      <c r="B7">
-        <v>100</v>
-      </c>
-      <c r="C7">
-        <v>0.6</v>
-      </c>
-      <c r="D7">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7">
-        <v>22.7</v>
-      </c>
-      <c r="H7">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2018</v>
-      </c>
-      <c r="B8">
-        <v>100</v>
-      </c>
-      <c r="C8">
-        <v>0.6</v>
-      </c>
-      <c r="D8">
-        <v>18.7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8">
-        <v>22</v>
-      </c>
-      <c r="H8">
         <v>5</v>
       </c>
     </row>
@@ -1266,71 +1567,121 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84733A7C-72A1-4A69-9AF0-87FF011E080C}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection sqref="A1:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>39</v>
+      <c r="A2">
+        <v>2014</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>25.6</v>
+      </c>
+      <c r="D2">
+        <v>22.7</v>
+      </c>
+      <c r="E2">
+        <v>19.8</v>
+      </c>
+      <c r="F2">
+        <v>27</v>
+      </c>
+      <c r="G2">
+        <v>4.5</v>
+      </c>
+      <c r="H2">
+        <v>0.4</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" t="s">
-        <v>31</v>
+      <c r="A3">
+        <v>2015</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>28.6</v>
+      </c>
+      <c r="D3">
+        <v>24.1</v>
+      </c>
+      <c r="E3">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="F3">
+        <v>22.1</v>
+      </c>
+      <c r="G3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H3">
+        <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="B4">
         <v>100</v>
       </c>
       <c r="C4">
-        <v>25.6</v>
+        <v>28.4</v>
       </c>
       <c r="D4">
-        <v>22.7</v>
+        <v>25.9</v>
       </c>
       <c r="E4">
-        <v>19.8</v>
+        <v>18.2</v>
       </c>
       <c r="F4">
-        <v>27</v>
+        <v>21.5</v>
       </c>
       <c r="G4">
-        <v>4.5</v>
+        <v>5.6</v>
       </c>
       <c r="H4">
         <v>0.4</v>
@@ -1338,105 +1689,53 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="B5">
         <v>100</v>
       </c>
       <c r="C5">
-        <v>28.6</v>
+        <v>29.1</v>
       </c>
       <c r="D5">
-        <v>24.1</v>
+        <v>25.8</v>
       </c>
       <c r="E5">
-        <v>20.399999999999999</v>
+        <v>19</v>
       </c>
       <c r="F5">
-        <v>22.1</v>
+        <v>21.1</v>
       </c>
       <c r="G5">
-        <v>4.5999999999999996</v>
+        <v>4.3</v>
       </c>
       <c r="H5">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="B6">
         <v>100</v>
       </c>
       <c r="C6">
-        <v>28.4</v>
+        <v>27.4</v>
       </c>
       <c r="D6">
-        <v>25.9</v>
+        <v>23.6</v>
       </c>
       <c r="E6">
-        <v>18.2</v>
+        <v>20.3</v>
       </c>
       <c r="F6">
-        <v>21.5</v>
+        <v>23.2</v>
       </c>
       <c r="G6">
-        <v>5.6</v>
+        <v>5</v>
       </c>
       <c r="H6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2017</v>
-      </c>
-      <c r="B7">
-        <v>100</v>
-      </c>
-      <c r="C7">
-        <v>29.1</v>
-      </c>
-      <c r="D7">
-        <v>25.8</v>
-      </c>
-      <c r="E7">
-        <v>19</v>
-      </c>
-      <c r="F7">
-        <v>21.1</v>
-      </c>
-      <c r="G7">
-        <v>4.3</v>
-      </c>
-      <c r="H7">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2018</v>
-      </c>
-      <c r="B8">
-        <v>100</v>
-      </c>
-      <c r="C8">
-        <v>27.4</v>
-      </c>
-      <c r="D8">
-        <v>23.6</v>
-      </c>
-      <c r="E8">
-        <v>20.3</v>
-      </c>
-      <c r="F8">
-        <v>23.2</v>
-      </c>
-      <c r="G8">
-        <v>5</v>
-      </c>
-      <c r="H8">
         <v>0.6</v>
       </c>
     </row>
